--- a/Assets/Excel/Card.xlsx
+++ b/Assets/Excel/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0737F0-7CB1-43FB-AAEE-826106CBDEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CACE7F6-B781-40E0-99FF-140F22DD1015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,54 @@
   </si>
   <si>
     <t>BgIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识符(写数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加的脚本名(暂不写)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性(写数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -99,8 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -381,22 +430,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -413,6 +462,44 @@
       </c>
       <c r="H1" t="s">
         <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Card.xlsx
+++ b/Assets/Excel/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CACE7F6-B781-40E0-99FF-140F22DD1015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D069DE5-2251-4906-8A90-56AAAC799CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>特效路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
@@ -445,7 +457,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -477,29 +489,61 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Card.xlsx
+++ b/Assets/Excel/Card.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Kill-Three-Mob-Then-Win-ALL\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12CE22E-6BC9-44AC-964B-D5E71F80D168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BDBBE2-9FA4-480E-BCC7-FE42E25ABFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,9 +41,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Des</t>
-  </si>
-  <si>
     <t>BgIcon</t>
   </si>
   <si>
@@ -193,6 +190,18 @@
   </si>
   <si>
     <t>抽到时对玩家造成3点伤害，并将此牌消耗</t>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Img/Card/无属性卡牌框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Img/Card/1000 打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -543,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -568,25 +577,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -602,25 +611,29 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -630,12 +643,12 @@
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -643,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -653,12 +666,12 @@
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -666,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -676,12 +689,12 @@
         <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -689,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -699,12 +712,12 @@
         <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -712,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -722,12 +735,12 @@
         <v>1005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -735,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -745,12 +758,12 @@
         <v>1006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -758,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -768,12 +781,12 @@
         <v>1007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -781,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -791,12 +804,12 @@
         <v>1008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -804,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -814,12 +827,12 @@
         <v>1009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -827,7 +840,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -837,12 +850,12 @@
         <v>1010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -850,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -860,12 +873,12 @@
         <v>1011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -873,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -883,12 +896,12 @@
         <v>1012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -896,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -906,12 +919,12 @@
         <v>1013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -919,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -929,12 +942,12 @@
         <v>1014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -942,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -952,12 +965,12 @@
         <v>1015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -965,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -975,12 +988,12 @@
         <v>1016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -988,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -998,12 +1011,12 @@
         <v>1017</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1011,11 +1024,11 @@
         <v>999</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28" x14ac:dyDescent="0.3">
@@ -1023,12 +1036,12 @@
         <v>1018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1036,11 +1049,11 @@
         <v>999</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Card.xlsx
+++ b/Assets/Excel/Card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12CE22E-6BC9-44AC-964B-D5E71F80D168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F260029D-F5DA-44DD-B5A2-D204E26E4B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="1620" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>BgIcon</t>
-  </si>
-  <si>
-    <t>Icon</t>
   </si>
   <si>
     <t>Expend</t>
@@ -193,6 +190,86 @@
   </si>
   <si>
     <t>抽到时对玩家造成3点伤害，并将此牌消耗</t>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/UI/1018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -543,14 +620,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.4140625" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="11" max="11" width="11.9140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,19 +652,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -602,71 +680,77 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H3" s="1">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -676,20 +760,22 @@
         <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -699,43 +785,47 @@
         <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="H8" s="1">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -745,20 +835,22 @@
         <v>1006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="1">
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -768,20 +860,22 @@
         <v>1007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="1">
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -791,20 +885,22 @@
         <v>1008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -814,20 +910,22 @@
         <v>1009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="1">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -837,20 +935,22 @@
         <v>1010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="1">
         <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -860,20 +960,22 @@
         <v>1011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="H14" s="1">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -883,20 +985,22 @@
         <v>1012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="H15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -906,20 +1010,22 @@
         <v>1013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H16" s="1">
         <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -929,20 +1035,22 @@
         <v>1014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -952,20 +1060,22 @@
         <v>1015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H18" s="1">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -975,47 +1085,51 @@
         <v>1016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="H19" s="1">
         <v>3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1017</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="H20" s="1">
         <v>999</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28" x14ac:dyDescent="0.3">
@@ -1023,24 +1137,26 @@
         <v>1018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="H21" s="1">
         <v>999</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Card.xlsx
+++ b/Assets/Excel/Card.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F260029D-F5DA-44DD-B5A2-D204E26E4B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5722C8F-CB52-4417-A087-540269710F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="1620" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,28 +35,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Script</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Des</t>
   </si>
   <si>
-    <t>BgIcon</t>
-  </si>
-  <si>
     <t>Expend</t>
   </si>
   <si>
     <t>Arg0</t>
-  </si>
-  <si>
-    <t>Effects</t>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
   <si>
     <t>打击</t>
@@ -181,9 +166,6 @@
   <si>
     <t>诅咒</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>不加入随机池</t>
   </si>
   <si>
     <t>咒术</t>
@@ -324,19 +306,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,14 +599,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.4140625" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="11" max="11" width="11.9140625" customWidth="1"/>
   </cols>
@@ -643,29 +625,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -680,484 +652,480 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="1">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="1">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="1">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="1">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="1">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="56" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="1">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="1">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="1">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1">
         <v>2</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H16" s="1">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1">
         <v>3</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="1">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="1">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="56" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="1">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1017</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="1">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1">
         <v>999</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="F20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="28" x14ac:dyDescent="0.3">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="1">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="1">
         <v>999</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="F21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="K21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Excel/Card.xlsx
+++ b/Assets/Excel/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5722C8F-CB52-4417-A087-540269710F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59893F68-668C-4702-B3FD-8418C05E2129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,86 @@
   </si>
   <si>
     <t>Prefab/UI/1018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card1018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +680,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -633,7 +713,9 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -671,7 +753,9 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -696,7 +780,9 @@
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -721,7 +807,9 @@
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -746,7 +834,9 @@
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -771,7 +861,9 @@
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -796,7 +888,9 @@
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -821,7 +915,9 @@
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -846,7 +942,9 @@
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -871,7 +969,9 @@
       <c r="F11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -896,7 +996,9 @@
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -921,7 +1023,9 @@
       <c r="F13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -946,7 +1050,9 @@
       <c r="F14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -971,7 +1077,9 @@
       <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -996,7 +1104,9 @@
       <c r="F16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1021,7 +1131,9 @@
       <c r="F17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1046,7 +1158,9 @@
       <c r="F18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1071,7 +1185,9 @@
       <c r="F19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1096,7 +1212,9 @@
       <c r="F20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
@@ -1121,7 +1239,9 @@
       <c r="F21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>

--- a/Assets/Excel/Card.xlsx
+++ b/Assets/Excel/Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Kill-Three-Mob-Then-Win\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59893F68-668C-4702-B3FD-8418C05E2129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B16BB83-FB14-4837-83DF-E560B6F61F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,82 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/UI/1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/UI/1018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Script</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,6 +255,82 @@
   </si>
   <si>
     <t>Card1018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/Card/1018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +680,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -714,7 +714,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -772,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -853,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -880,7 +880,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -889,7 +889,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -907,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -916,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -934,7 +934,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -961,7 +961,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -988,7 +988,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -997,7 +997,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1015,7 +1015,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1042,7 +1042,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1069,7 +1069,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1078,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1096,7 +1096,7 @@
         <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -1105,7 +1105,7 @@
         <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1123,7 +1123,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1150,7 +1150,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -1159,7 +1159,7 @@
         <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1177,7 +1177,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -1186,7 +1186,7 @@
         <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1204,7 +1204,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E20" s="1">
         <v>999</v>
@@ -1213,7 +1213,7 @@
         <v>45</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1231,7 +1231,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1">
         <v>999</v>
@@ -1240,7 +1240,7 @@
         <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>

--- a/Assets/Excel/Card.xlsx
+++ b/Assets/Excel/Card.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -40,151 +40,244 @@
     <t>Script</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Des</t>
   </si>
   <si>
-    <t>BgIcon</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
     <t>Expend</t>
   </si>
   <si>
     <t>Arg0</t>
   </si>
   <si>
-    <t>Effects</t>
-  </si>
-  <si>
-    <t>备注</t>
+    <t>PrefabPath</t>
   </si>
   <si>
     <t>打击</t>
   </si>
   <si>
+    <t>Card1000</t>
+  </si>
+  <si>
     <t>造成 5 点伤害</t>
   </si>
   <si>
     <t>普通</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1000</t>
+  </si>
+  <si>
     <t>防御</t>
   </si>
   <si>
+    <t>Card1001</t>
+  </si>
+  <si>
     <t>增加4点护盾</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1001</t>
+  </si>
+  <si>
     <t>迅捷攻击</t>
   </si>
   <si>
+    <t>Card1002</t>
+  </si>
+  <si>
     <t>造成 7点伤害，抽1张牌</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1002</t>
+  </si>
+  <si>
     <t>快速防守</t>
   </si>
   <si>
+    <t>Card1003</t>
+  </si>
+  <si>
     <t>获得12点格挡</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1003</t>
+  </si>
+  <si>
     <t>攻守兼备</t>
   </si>
   <si>
+    <t>Card1005</t>
+  </si>
+  <si>
     <t>造成12点伤害，获得12点格挡</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1005</t>
+  </si>
+  <si>
     <t>我没意见</t>
   </si>
   <si>
+    <t>Card1006</t>
+  </si>
+  <si>
     <t>抽三张牌，抽三张牌随机使你的一张手牌变成0费</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1006</t>
+  </si>
+  <si>
     <t>启动！！！</t>
   </si>
   <si>
-    <t>在本局对战剩余时间内，提升自己的1点费用上限，回合结束后对敌人造成随机随机一个元素的1点伤害</t>
+    <t>Card1007</t>
+  </si>
+  <si>
+    <t>在本局对战剩余时间内，提升自己的1点费用上限，回合结束后对敌人造成随机元素的1点伤害</t>
+  </si>
+  <si>
+    <t>PrefabPath/Card/1007</t>
   </si>
   <si>
     <t>火花</t>
   </si>
   <si>
+    <t>Card1008</t>
+  </si>
+  <si>
     <t>造成7点火元素伤害，本回合结束对敌人造成1点火元素伤害</t>
   </si>
   <si>
     <t>火</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1008</t>
+  </si>
+  <si>
     <t>火之意志</t>
   </si>
   <si>
+    <t>Card1009</t>
+  </si>
+  <si>
     <t>造成20点火元素伤害</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1009</t>
+  </si>
+  <si>
     <t>浴火重生</t>
   </si>
   <si>
+    <t>Card1010</t>
+  </si>
+  <si>
     <t>在本局剩余时间内，当你阵亡时，复活并永久减少10点生命上限，回复100%血量</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1010</t>
+  </si>
+  <si>
     <t>点水</t>
   </si>
   <si>
+    <t>Card1011</t>
+  </si>
+  <si>
     <t>造成3点水元素伤害，获得5点格挡</t>
   </si>
   <si>
     <t>水</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1011</t>
+  </si>
+  <si>
     <t>水之屏障</t>
   </si>
   <si>
+    <t>Card1012</t>
+  </si>
+  <si>
     <t>获得13点格挡，并在回合结束造成3点水元素伤害</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1012</t>
+  </si>
+  <si>
     <t>浊流</t>
   </si>
   <si>
+    <t>Card1013</t>
+  </si>
+  <si>
     <t>抵消你下次受到的伤害，在本局剩余时间内，使敌人身上存在不会消耗的水元素附着</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1013</t>
+  </si>
+  <si>
     <t>起草</t>
   </si>
   <si>
+    <t>Card1014</t>
+  </si>
+  <si>
     <t>造成5点木元素伤害，下回合抽2张牌</t>
   </si>
   <si>
     <t>草</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1014</t>
+  </si>
+  <si>
     <t>草之呼吸</t>
   </si>
   <si>
+    <t>Card1015</t>
+  </si>
+  <si>
     <t>造成10点木属性伤害，下回合额外获得2点费用并抽2张牌</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1015</t>
+  </si>
+  <si>
     <t>落叶归根</t>
   </si>
   <si>
+    <t>Card1016</t>
+  </si>
+  <si>
     <t>回复20血，在本局剩余时间内，每回合多抽2张牌</t>
   </si>
   <si>
+    <t>PrefabPath/Card/1016</t>
+  </si>
+  <si>
     <t>诅咒</t>
   </si>
   <si>
+    <t>Card1017</t>
+  </si>
+  <si>
     <t>无法被打出</t>
   </si>
   <si>
-    <t>不加入随机池</t>
+    <t>PrefabPath/Card/1017</t>
   </si>
   <si>
     <t>咒术</t>
   </si>
   <si>
+    <t>Card1018</t>
+  </si>
+  <si>
     <t>抽到时对玩家造成3点伤害，并将此牌消耗</t>
+  </si>
+  <si>
+    <t>PrefabPath/Card/1018</t>
   </si>
 </sst>
 </file>
@@ -1135,21 +1228,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="84.875" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="84.875" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,564 +1264,533 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" ht="28.5" spans="1:17">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>1007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>1008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>1009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>1010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>1011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
+        <v>49</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>1012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>1013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>1014</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>1015</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>1016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17">
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>1017</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1">
         <v>999</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17">
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>1018</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1">
         <v>999</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="12:17">
+    </row>
+    <row r="20" spans="7:12">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="12:17">
+    </row>
+    <row r="21" spans="7:12">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17">
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1741,13 +1803,8 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1760,13 +1817,8 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1779,13 +1831,8 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1798,13 +1845,8 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1817,11 +1859,9 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+    </row>
+    <row r="1048576" spans="7:7">
+      <c r="G1048576" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/Assets/Excel/Card.xlsx
+++ b/Assets/Excel/Card.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="87">
   <si>
     <t>Id</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>PrefabPath/Card/1003</t>
+  </si>
+  <si>
+    <t>我全都要</t>
+  </si>
+  <si>
+    <t>Card1004</t>
+  </si>
+  <si>
+    <t>从摸牌区将你的手牌重新补充至6张</t>
+  </si>
+  <si>
+    <t>PrefabPath/Card/1004</t>
   </si>
   <si>
     <t>攻守兼备</t>
@@ -1231,7 +1243,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1383,25 +1395,25 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="1"/>
@@ -1412,7 +1424,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
@@ -1439,20 +1451,20 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2">
-        <v>1007</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1468,7 +1480,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>36</v>
@@ -1476,17 +1488,17 @@
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1496,22 +1508,22 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>44</v>
@@ -1524,7 +1536,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>45</v>
@@ -1532,14 +1544,14 @@
       <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>48</v>
@@ -1552,7 +1564,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>49</v>
@@ -1560,17 +1572,17 @@
       <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1580,22 +1592,22 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>57</v>
@@ -1607,23 +1619,23 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>1013</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>61</v>
@@ -1636,7 +1648,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>62</v>
@@ -1644,17 +1656,17 @@
       <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1664,22 +1676,22 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>70</v>
@@ -1691,10 +1703,10 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2">
-        <v>1016</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1704,10 +1716,10 @@
         <v>73</v>
       </c>
       <c r="E17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>74</v>
@@ -1719,10 +1731,10 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>1017</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1732,10 +1744,10 @@
         <v>77</v>
       </c>
       <c r="E18" s="1">
-        <v>999</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>78</v>
@@ -1748,7 +1760,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>79</v>
@@ -1774,8 +1786,28 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="7:12">
-      <c r="G20" s="1"/>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1">
+        <v>999</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>

--- a/Assets/Excel/Card.xlsx
+++ b/Assets/Excel/Card.xlsx
@@ -133,7 +133,7 @@
     <t>Card1006</t>
   </si>
   <si>
-    <t>抽三张牌，抽三张牌随机使你的一张手牌变成0费</t>
+    <t>抽三张牌并随机使你的一张手牌变成0费</t>
   </si>
   <si>
     <t>PrefabPath/Card/1006</t>
@@ -223,7 +223,7 @@
     <t>Card1013</t>
   </si>
   <si>
-    <t>抵消你下次受到的伤害，在本局剩余时间内，使敌人身上存在不会消耗的水元素附着</t>
+    <t>获得20点格挡，在本局剩余时间内，使敌人身上存在不会消耗的水元素附着</t>
   </si>
   <si>
     <t>PrefabPath/Card/1013</t>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
